--- a/ys_xml/C00_ReadTable/00已读书单.xlsx
+++ b/ys_xml/C00_ReadTable/00已读书单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
   <si>
     <t>起始时间</t>
   </si>
@@ -720,15 +720,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>207.07.24</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>B心理学/哲学</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>《重口味心理学2》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.07.24</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.07.30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《天才在左，疯子在右》微信讲书</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -966,8 +978,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1301,7 +1315,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="179">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1390,6 +1404,7 @@
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1478,6 +1493,7 @@
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2013,16 +2029,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I31" sqref="I31"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
@@ -2793,11 +2809,13 @@
         <v>178</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="5">
@@ -2807,7 +2825,7 @@
     </row>
     <row r="31" spans="1:9" ht="28" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="26">
         <v>29</v>
@@ -2815,26 +2833,36 @@
       <c r="C31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="F31" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="28" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="26">
+        <v>30</v>
+      </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="5"/>
       <c r="I32" s="30"/>
@@ -2862,35 +2890,23 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="28" customHeight="1">
-      <c r="A35" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="A35" s="25"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="7"/>
       <c r="H35" s="5"/>
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="28" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="A36" s="25"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="7"/>
       <c r="H36" s="5"/>
       <c r="I36" s="30"/>
@@ -2901,7 +2917,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="7"/>
       <c r="H37" s="5"/>
       <c r="I37" s="30"/>
@@ -2912,87 +2928,91 @@
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="21"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="7"/>
       <c r="H38" s="5"/>
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="28" customHeight="1">
-      <c r="A39" s="25"/>
+      <c r="A39" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="B39" s="26"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="21"/>
+      <c r="F39" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="28" customHeight="1">
-      <c r="A40" s="25"/>
+      <c r="A40" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="B40" s="26"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="28" customHeight="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="7"/>
       <c r="H41" s="5"/>
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="28" customHeight="1">
-      <c r="A42" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="7"/>
       <c r="H42" s="5"/>
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="28" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="7"/>
       <c r="H43" s="5"/>
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="28" customHeight="1">
-      <c r="A44" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="7"/>
       <c r="H44" s="5"/>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="28" customHeight="1">
-      <c r="A45" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="26"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -3003,59 +3023,61 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="28" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="5"/>
+      <c r="A46" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="5"/>
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="28" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="5"/>
+      <c r="A47" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="5"/>
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="28" customHeight="1">
-      <c r="A48" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="5"/>
+      <c r="A48" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="5"/>
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="28" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="5"/>
+      <c r="A49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="5"/>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="28" customHeight="1">
-      <c r="A50" s="5"/>
+      <c r="A50" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="11"/>
@@ -3066,7 +3088,9 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="28" customHeight="1">
-      <c r="A51" s="5"/>
+      <c r="A51" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="11"/>
@@ -3075,6 +3099,54 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="28" customHeight="1">
+      <c r="A52" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="28" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="28" customHeight="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="28" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ys_xml/C00_ReadTable/00已读书单.xlsx
+++ b/ys_xml/C00_ReadTable/00已读书单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="40" windowWidth="28080" windowHeight="19180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8980" yWindow="0" windowWidth="28080" windowHeight="20800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="192">
   <si>
     <t>起始时间</t>
   </si>
@@ -740,7 +740,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>《天才在左，疯子在右》微信讲书</t>
+    <t>《哈佛积极心理学笔记》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王滟明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.09.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录了哈弗积极心理学课程，内容有些散乱。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.17</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧红</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《呼兰河传》</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1158,8 +1186,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,8 +1346,14 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="183">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1405,6 +1443,8 @@
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1494,6 +1534,8 @@
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2029,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -2542,7 +2584,7 @@
       <c r="A19" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="53">
         <v>18</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -2567,7 +2609,7 @@
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1">
       <c r="A20" s="49"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="41"/>
       <c r="D20" s="8" t="s">
         <v>166</v>
@@ -2717,7 +2759,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="26">
@@ -2738,7 +2780,7 @@
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="28" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="26">
@@ -2755,7 +2797,7 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="28" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="26">
@@ -2855,25 +2897,43 @@
       <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F32" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="28" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="26">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="5"/>
       <c r="I33" s="30"/>
@@ -2923,46 +2983,46 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="28" customHeight="1">
-      <c r="A38" s="25"/>
+      <c r="A38" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="B38" s="26"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="5"/>
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="28" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="21" t="s">
-        <v>57</v>
+      <c r="F39" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="28" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="A40" s="25"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
       <c r="I40" s="30"/>
@@ -3001,18 +3061,20 @@
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="28" customHeight="1">
-      <c r="A44" s="25"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="26"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="7"/>
       <c r="H44" s="5"/>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="28" customHeight="1">
-      <c r="A45" s="7"/>
+      <c r="A45" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="26"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -3023,8 +3085,8 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="28" customHeight="1">
-      <c r="A46" s="20" t="s">
-        <v>56</v>
+      <c r="A46" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="7"/>
@@ -3036,8 +3098,8 @@
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="28" customHeight="1">
-      <c r="A47" s="21" t="s">
-        <v>57</v>
+      <c r="A47" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="7"/>
@@ -3049,8 +3111,8 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="28" customHeight="1">
-      <c r="A48" s="22" t="s">
-        <v>58</v>
+      <c r="A48" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="7"/>
@@ -3062,21 +3124,21 @@
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="28" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="28" customHeight="1">
-      <c r="A50" s="24" t="s">
-        <v>35</v>
+      <c r="A50" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3088,8 +3150,8 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="28" customHeight="1">
-      <c r="A51" s="28" t="s">
-        <v>84</v>
+      <c r="A51" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3101,8 +3163,8 @@
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="28" customHeight="1">
-      <c r="A52" s="37" t="s">
-        <v>171</v>
+      <c r="A52" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3114,9 +3176,7 @@
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="11"/>
@@ -3137,25 +3197,15 @@
       <c r="H54" s="5"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="28" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="30"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ys_xml/C00_ReadTable/00已读书单.xlsx
+++ b/ys_xml/C00_ReadTable/00已读书单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="0" windowWidth="28080" windowHeight="20800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33940" windowHeight="19100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="229">
   <si>
     <t>起始时间</t>
   </si>
@@ -769,6 +769,156 @@
   </si>
   <si>
     <t>《呼兰河传》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.09.21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《这个历史挺靠谱》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10.09</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.29</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《我们为什么会分手》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛路、赵佳禾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.09</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10.12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧红的代表作，平淡的语言里，写出了那个时代人格的扭曲、人性的冷漠和麻木、思想的落后。看了萧红生平的纪录片，对于这样有才又经受苦难的文人，更确切说是女文人，有种敬佩的心情，所以找来了这本代表作。
+整本书多数故事都会给人以压抑的感觉，只有在爷爷出现的时候，能让人感受到一些安慰和温暖，这大概是萧红心里唯一的慰藉。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《男人来自火星，女人来自金星》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《金字塔原理》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉.名托</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松的文笔写历史，以我狭隘的认知来看，大多数史实都是有理有据的，但有些地方就给人很不靠谱的感觉。当然也是本人的历史修养太差，所以看到这种开玩笑似的历史描述总感觉不靠谱不正式。也许正儿八经的历史书，又看不下去了。
+从部落一直写到21世纪，时间跨度很长，适合我这样的历史小白看，当然纯属消遣，走马观花地看个历史大概，不必深究。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一些已分手的情侣的采访纪录，希望看看别人出现的感情问题，在和男友相处的过程中做到自省。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.06</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《如何成为一个有趣的人》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.17</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10.17</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《当你的才华还撑不起你的梦想》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特立独行的猫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《不要让未来的你，讨厌现在的自己》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.23</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10.21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.19</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.18</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>《乌合之众：大众心理学研究》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>古斯塔夫.勒庞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者本身是一个北漂，一步步走到现在的样子。虽也不算是成功人士，也算小有成就。最主要的是，作者本身是一个“平凡人”，身上却有一些不平凡的地方，比如无论工作再累每天都会坚持写软文。也许就是这种平凡人的坚持，让读者更加喜欢，即亲近又敬佩，因为有太多人一路走来都忘了初心，丢了原本的样子，变得成熟、委曲求全。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>找来第二本书看，发现很多事例都与前面这本相似，于是我开始看的有些不耐烦了，匆匆翻过。这本书于我映象最深刻的是关于迷茫期的描述。原来我们都只是普罗大众一员，不知道自己最喜欢的是什么、最擅长的是什么、最想做的是什么。工作初期总会对自己的工作不满，总是把一时兴起当做兴趣，一心想要将其发展到专职工作，而实际上尝试几次后就放弃了。工作时间长了后就开始失去初入职场时的雄心壮志，慢慢的变得安于现状，日复一日。这大概就是多数人的状态，所以，能跳出这种状态的人，也许就会有不一样的格局。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>简言之就是，腹有诗书气自华。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、理解男女之间的思维差异；2、相处之道在于相互理解，相互体谅，相互珍惜和包容。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1190,8 +1340,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,6 +1476,12 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,14 +1524,14 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="205">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1445,6 +1623,17 @@
     <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1536,6 +1725,17 @@
     <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1906,80 +2106,80 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" customHeight="1">
-      <c r="A4" s="42">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="42">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -2071,11 +2271,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A27" sqref="A27"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -2088,7 +2288,7 @@
     <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="59.375" style="31" customWidth="1"/>
     <col min="10" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
@@ -2581,13 +2781,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="40" customHeight="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="54">
         <v>18</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="42" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2596,31 +2796,31 @@
       <c r="E19" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="38">
+      <c r="G19" s="42"/>
+      <c r="H19" s="40">
         <v>4</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="48" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="47"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="134" customHeight="1">
       <c r="A21" s="25" t="s">
@@ -2662,9 +2862,8 @@
       <c r="D22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="8" t="e">
-        <f>-(未看完)</f>
-        <v>#NAME?</v>
+      <c r="E22" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>85</v>
@@ -2917,8 +3116,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28" customHeight="1">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:9" ht="96" customHeight="1">
+      <c r="A33" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B33" s="26">
@@ -2930,121 +3129,243 @@
       <c r="D33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="F33" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="28" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="5"/>
+      <c r="H33" s="5">
+        <v>4</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="115" customHeight="1">
+      <c r="A34" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="26">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="5">
+        <v>4</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="28" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="26">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="5"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" ht="28" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5"/>
+    <row r="36" spans="1:9" ht="44" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="39">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="28" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="39">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="5">
+        <v>4</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="28" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>203</v>
+      </c>
+      <c r="B38" s="26">
+        <v>36</v>
+      </c>
       <c r="C38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="21" t="s">
-        <v>57</v>
+      <c r="F38" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>4.5</v>
+      </c>
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="28" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="B39" s="39">
+        <v>37</v>
+      </c>
       <c r="C39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="13" t="s">
-        <v>27</v>
+        <v>211</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="28" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="21"/>
+      <c r="H39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="84" customHeight="1">
+      <c r="A40" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="39">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" ht="28" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="21"/>
+      <c r="H40" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="142" customHeight="1">
+      <c r="A41" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="39">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="28" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="39">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="5"/>
       <c r="I42" s="30"/>
@@ -3055,147 +3376,219 @@
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="7"/>
       <c r="H43" s="5"/>
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="28" customHeight="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="7"/>
       <c r="H44" s="5"/>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="28" customHeight="1">
-      <c r="A45" s="20" t="s">
-        <v>56</v>
+      <c r="A45" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="5"/>
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="28" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="7"/>
       <c r="H46" s="5"/>
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="28" customHeight="1">
-      <c r="A47" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="7"/>
       <c r="H47" s="5"/>
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="28" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="7"/>
       <c r="H48" s="5"/>
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="28" customHeight="1">
-      <c r="A49" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="5"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="5"/>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="28" customHeight="1">
-      <c r="A50" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="5"/>
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="28" customHeight="1">
-      <c r="A51" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="5"/>
+      <c r="A51" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="5"/>
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="28" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="5"/>
+      <c r="A52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="5"/>
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="5"/>
+      <c r="A53" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="5"/>
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="28" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="5"/>
+      <c r="A54" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="5"/>
       <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="28" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="28" customHeight="1">
+      <c r="A56" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="28" customHeight="1">
+      <c r="A57" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="28" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="28" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="28" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3418,26 +3811,26 @@
       <c r="I13" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="28" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="28" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/ys_xml/C00_ReadTable/00已读书单.xlsx
+++ b/ys_xml/C00_ReadTable/00已读书单.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33940" windowHeight="19100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="0" windowWidth="32920" windowHeight="19100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2017" sheetId="3" r:id="rId2"/>
-    <sheet name="模板" sheetId="4" r:id="rId3"/>
+    <sheet name="all" sheetId="6" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="3" r:id="rId3"/>
+    <sheet name="2018" sheetId="5" r:id="rId4"/>
+    <sheet name="模板" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="240">
   <si>
     <t>起始时间</t>
   </si>
@@ -91,35 +93,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆瓣星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>读后感</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>我的星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A计算机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B心理学/哲学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C科幻/小说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D文学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -919,6 +901,69 @@
   </si>
   <si>
     <t>1、理解男女之间的思维差异；2、相处之道在于相互理解，相互体谅，相互珍惜和包容。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>H 两性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 历史/政治</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F 人物传记</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 心理学/哲学</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 计算机/编程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 科幻/小说</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>D 文学/小说</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>E 效率/励志</t>
+  </si>
+  <si>
+    <t>E 效率/励志</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.29</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《情感问答》</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.07</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.09</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个豆瓣博主的总结笔记，说的都是比较实际的问题。我有些理想化，所以有些观点不赞同。随便看看吧</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1008,18 +1053,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1030,12 +1069,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1138,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1156,7 +1213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1362,8 +1419,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,52 +1497,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,16 +1545,7 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,7 +1554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,49 +1569,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,26 +1668,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="271">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1634,6 +1793,39 @@
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1736,6 +1928,39 @@
     <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2007,17 +2232,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="50">
+        <v>3</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" ht="28" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="50">
+        <v>4</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="37">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="37">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="37">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="37">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="37">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="37">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="37">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="37">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="37">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="37">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="37">
+        <v>15</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="37">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="48">
+        <v>17</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="28" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="37">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="37">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="56" customHeight="1">
+      <c r="A24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="37">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="37">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="37">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="37">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="37">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="37">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="37">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28" customHeight="1">
+      <c r="A31" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="37">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="37">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="37">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28" customHeight="1">
+      <c r="A34" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="37">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28" customHeight="1">
+      <c r="A35" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="37">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="37">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28" customHeight="1">
+      <c r="A37" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="37">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="37">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28" customHeight="1">
+      <c r="A39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="37">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="28" customHeight="1">
+      <c r="A40" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="37">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
@@ -2029,76 +3259,76 @@
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="17">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="5">
@@ -2106,140 +3336,80 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" customHeight="1">
-      <c r="A4" s="44">
+      <c r="A4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="50">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="57">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="44">
+      <c r="A6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="57">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="28" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="28" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="28" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="28" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2269,13 +3439,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H38" sqref="H38"/>
+      <selection pane="topRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -2288,7 +3458,7 @@
     <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="59.375" style="26" customWidth="1"/>
     <col min="10" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
@@ -2296,1299 +3466,1354 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>55</v>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>137</v>
+      <c r="G1" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="76" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="A2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>96</v>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>91</v>
+      <c r="I2" s="24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H3" s="5">
         <v>4.5</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>44</v>
+      <c r="I3" s="24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>66</v>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="H4" s="5">
         <v>3.5</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="46" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="61">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="56" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="46" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="26">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="56" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="26">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>67</v>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="56" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="26">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>88</v>
+      <c r="G7" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="26">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>89</v>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>92</v>
+      <c r="I8" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="56" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="A9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="21">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>90</v>
+      <c r="F9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H9" s="5">
         <v>3.5</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>87</v>
+      <c r="I9" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="A10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="21">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>107</v>
+      <c r="G10" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="111" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="I10" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="26">
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="111" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="61">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="63">
+        <v>3</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="21">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5">
-        <v>3</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="69" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="26">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>115</v>
+      <c r="F12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="28" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="61">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="64"/>
+    </row>
+    <row r="14" spans="1:9" ht="142" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="21">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="28" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="26">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" ht="142" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="26">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>122</v>
+      <c r="E14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>116</v>
+      <c r="I14" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="A15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>120</v>
+      <c r="C15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="H15" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="70" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="I15" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="65" customFormat="1" ht="70" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="61">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="56" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="65" customFormat="1" ht="56" customHeight="1">
+      <c r="A17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="61">
+        <v>16</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="1:9" ht="158" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="21">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="26">
-        <v>16</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="D18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" ht="158" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="26">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="5">
         <v>4</v>
       </c>
-      <c r="I18" s="29" t="s">
-        <v>144</v>
+      <c r="I18" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="48">
+        <v>18</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="57">
+        <v>4</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="40" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="1:9" ht="134" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="54">
-        <v>18</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="E21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40">
-        <v>4</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="40" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" spans="1:9" ht="134" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="26">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="7"/>
+      <c r="F21" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="5">
         <v>3.5</v>
       </c>
-      <c r="I21" s="29" t="s">
-        <v>139</v>
+      <c r="I21" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="114" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="26">
+      <c r="A22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="21">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>208</v>
+      <c r="C22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="5">
         <v>3</v>
       </c>
-      <c r="I22" s="29" t="s">
-        <v>160</v>
+      <c r="I22" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="21">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>150</v>
+      <c r="E23" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="5">
         <v>3</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>151</v>
+      <c r="I23" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="42" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="26">
+      <c r="A24" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="21">
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="F24" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="5">
         <v>4.5</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>167</v>
+      <c r="I24" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="159" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="21">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="5">
         <v>4</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="65" customFormat="1" ht="28" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="61">
+        <v>24</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="1:9" s="65" customFormat="1" ht="28" customHeight="1">
+      <c r="A27" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="61">
+        <v>25</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="1:9" s="65" customFormat="1" ht="28" customHeight="1">
+      <c r="A28" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="61">
+        <v>26</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="1:9" ht="28" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="21">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="28" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="26">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="28" customHeight="1">
-      <c r="A27" s="33" t="s">
+      <c r="D29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="26">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="28" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="26">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="28" customHeight="1">
-      <c r="A29" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="26">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="7"/>
+      <c r="F29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="5">
         <v>3.5</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="21">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="28" customHeight="1">
-      <c r="A30" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="26">
-        <v>28</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="7"/>
+      <c r="F30" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="5">
         <v>4</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="28" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="26">
+      <c r="A31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="21">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="5">
         <v>4</v>
       </c>
-      <c r="I31" s="30"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="28" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="26">
+      <c r="A32" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="21">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="7"/>
+      <c r="C32" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="5">
         <v>3.5</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="96" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="21">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="96" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="26">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7"/>
+      <c r="F33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="5">
         <v>4</v>
       </c>
-      <c r="I33" s="29" t="s">
-        <v>201</v>
+      <c r="I33" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="115" customHeight="1">
-      <c r="A34" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="26">
+      <c r="A34" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="21">
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="7"/>
+      <c r="C34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="5">
         <v>4</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="28" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="26">
+      <c r="I34" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="65" customFormat="1" ht="28" customHeight="1">
+      <c r="A35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="61">
         <v>33</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="62"/>
+      <c r="F35" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="G35" s="28"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+    </row>
+    <row r="36" spans="1:9" ht="44" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="32">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="44" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="39">
-        <v>34</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="7"/>
+      <c r="F36" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="5">
         <v>3.5</v>
       </c>
-      <c r="I36" s="29" t="s">
-        <v>207</v>
+      <c r="I36" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="39">
+      <c r="A37" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="32">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="C37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="5">
         <v>4</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>228</v>
+      <c r="I37" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="28" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="26">
+      <c r="A38" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="21">
         <v>36</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="7"/>
+      <c r="C38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="5">
         <v>4.5</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="28" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="32">
+        <v>37</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="39">
-        <v>37</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>212</v>
+      <c r="E39" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="5">
         <v>3.5</v>
       </c>
-      <c r="I39" s="30" t="s">
-        <v>227</v>
+      <c r="I39" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="84" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="39">
+      <c r="A40" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="32">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="7"/>
+      <c r="F40" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="5">
         <v>3.5</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>225</v>
+      <c r="I40" s="24" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="142" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="39">
+      <c r="A41" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="32">
         <v>39</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="7"/>
+      <c r="C41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="5">
         <v>3.5</v>
       </c>
-      <c r="I41" s="29" t="s">
-        <v>226</v>
+      <c r="I41" s="24" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="28" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="39">
+      <c r="A42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="21">
         <v>40</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="1:9" ht="56" customHeight="1">
+      <c r="A43" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="41">
+        <v>41</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="28" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="30"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="45">
+        <v>3</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="28" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
+      <c r="A44" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="32">
+        <v>42</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="28" customHeight="1">
-      <c r="A45" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="28" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="7"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="28" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="7"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="28" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="7"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="28" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="28" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="7"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="28" customHeight="1">
-      <c r="A51" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="7"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="28" customHeight="1">
-      <c r="A52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="7"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="30"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="28" customHeight="1">
-      <c r="A53" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="28" customHeight="1">
-      <c r="A54" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="7"/>
+      <c r="A54" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="28" customHeight="1">
-      <c r="A55" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="5"/>
+      <c r="A55" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="30"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="28" customHeight="1">
-      <c r="A56" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="5"/>
+      <c r="A56" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="30"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="28" customHeight="1">
-      <c r="A57" s="37" t="s">
-        <v>171</v>
+      <c r="A57" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="30"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="28" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>85</v>
+      <c r="A58" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="30"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="28" customHeight="1">
-      <c r="A59" s="5"/>
+      <c r="A59" s="31" t="s">
+        <v>225</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="30"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="28" customHeight="1">
-      <c r="A60" s="5"/>
+      <c r="A60" s="38" t="s">
+        <v>224</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="30"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" ht="28" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:9" ht="28" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" ht="28" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3611,238 +4836,426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
+      <c r="G1" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="20"/>
+      <c r="B2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="20"/>
+      <c r="B3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="28" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="20"/>
+      <c r="B4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="28" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="28" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="28" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="28" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="28" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="50" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="28" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="43">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="28" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="43">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="28" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="28" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="28" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="28" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="28" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
     <row r="10" spans="1:9" ht="28" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="28" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="28" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="28" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="28" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="A15" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="28" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="A16" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" ht="28" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="28" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
